--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il10-Il10rb.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il10-Il10rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Il10rb</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.88697214686003</v>
+        <v>36.26745966666667</v>
       </c>
       <c r="H2">
-        <v>2.88697214686003</v>
+        <v>108.802379</v>
       </c>
       <c r="I2">
-        <v>0.1507831711737737</v>
+        <v>0.643144256662053</v>
       </c>
       <c r="J2">
-        <v>0.1507831711737737</v>
+        <v>0.6431442566620529</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.2159633162236</v>
+        <v>86.19469199999999</v>
       </c>
       <c r="N2">
-        <v>43.2159633162236</v>
+        <v>258.584076</v>
       </c>
       <c r="O2">
-        <v>0.3090354395142529</v>
+        <v>0.454900350325626</v>
       </c>
       <c r="P2">
-        <v>0.3090354395142529</v>
+        <v>0.454900350325626</v>
       </c>
       <c r="Q2">
-        <v>124.7632823936624</v>
+        <v>3126.062515590756</v>
       </c>
       <c r="R2">
-        <v>124.7632823936624</v>
+        <v>28134.5626403168</v>
       </c>
       <c r="S2">
-        <v>0.04659734357503999</v>
+        <v>0.2925665476654822</v>
       </c>
       <c r="T2">
-        <v>0.04659734357503999</v>
+        <v>0.2925665476654822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.88697214686003</v>
+        <v>36.26745966666667</v>
       </c>
       <c r="H3">
-        <v>2.88697214686003</v>
+        <v>108.802379</v>
       </c>
       <c r="I3">
-        <v>0.1507831711737737</v>
+        <v>0.643144256662053</v>
       </c>
       <c r="J3">
-        <v>0.1507831711737737</v>
+        <v>0.6431442566620529</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.23624951678279</v>
+        <v>9.289272666666667</v>
       </c>
       <c r="N3">
-        <v>9.23624951678279</v>
+        <v>27.867818</v>
       </c>
       <c r="O3">
-        <v>0.06604801119429725</v>
+        <v>0.04902498393215361</v>
       </c>
       <c r="P3">
-        <v>0.06604801119429725</v>
+        <v>0.04902498393215361</v>
       </c>
       <c r="Q3">
-        <v>26.66479509640132</v>
+        <v>336.8983217710025</v>
       </c>
       <c r="R3">
-        <v>26.66479509640132</v>
+        <v>3032.084895939022</v>
       </c>
       <c r="S3">
-        <v>0.009958928577597045</v>
+        <v>0.03153013684891403</v>
       </c>
       <c r="T3">
-        <v>0.009958928577597045</v>
+        <v>0.03153013684891402</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.88697214686003</v>
+        <v>36.26745966666667</v>
       </c>
       <c r="H4">
-        <v>2.88697214686003</v>
+        <v>108.802379</v>
       </c>
       <c r="I4">
-        <v>0.1507831711737737</v>
+        <v>0.643144256662053</v>
       </c>
       <c r="J4">
-        <v>0.1507831711737737</v>
+        <v>0.6431442566620529</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.7370505985502</v>
+        <v>88.33691399999999</v>
       </c>
       <c r="N4">
-        <v>81.7370505985502</v>
+        <v>265.010742</v>
       </c>
       <c r="O4">
-        <v>0.5844980284597526</v>
+        <v>0.4662061223594221</v>
       </c>
       <c r="P4">
-        <v>0.5844980284597526</v>
+        <v>0.4662061223594221</v>
       </c>
       <c r="Q4">
-        <v>235.9725884445034</v>
+        <v>3203.755465572802</v>
       </c>
       <c r="R4">
-        <v>235.9725884445034</v>
+        <v>28833.79919015522</v>
       </c>
       <c r="S4">
-        <v>0.08813246627598015</v>
+        <v>0.2998377900161486</v>
       </c>
       <c r="T4">
-        <v>0.08813246627598015</v>
+        <v>0.2998377900161486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.88697214686003</v>
+        <v>36.26745966666667</v>
       </c>
       <c r="H5">
-        <v>2.88697214686003</v>
+        <v>108.802379</v>
       </c>
       <c r="I5">
-        <v>0.1507831711737737</v>
+        <v>0.643144256662053</v>
       </c>
       <c r="J5">
-        <v>0.1507831711737737</v>
+        <v>0.6431442566620529</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.65218447536042</v>
+        <v>5.659503</v>
       </c>
       <c r="N5">
-        <v>5.65218447536042</v>
+        <v>16.978509</v>
       </c>
       <c r="O5">
-        <v>0.04041852083169717</v>
+        <v>0.02986854338279823</v>
       </c>
       <c r="P5">
-        <v>0.04041852083169717</v>
+        <v>0.02986854338279823</v>
       </c>
       <c r="Q5">
-        <v>16.3176991492802</v>
+        <v>205.255796785879</v>
       </c>
       <c r="R5">
-        <v>16.3176991492802</v>
+        <v>1847.302171072911</v>
       </c>
       <c r="S5">
-        <v>0.006094432745156534</v>
+        <v>0.01920978213150805</v>
       </c>
       <c r="T5">
-        <v>0.006094432745156534</v>
+        <v>0.01920978213150805</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.345880889685</v>
+        <v>3.209141666666667</v>
       </c>
       <c r="H6">
-        <v>15.345880889685</v>
+        <v>9.627425000000001</v>
       </c>
       <c r="I6">
-        <v>0.8014973707032105</v>
+        <v>0.05690889438359308</v>
       </c>
       <c r="J6">
-        <v>0.8014973707032105</v>
+        <v>0.05690889438359308</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.2159633162236</v>
+        <v>86.19469199999999</v>
       </c>
       <c r="N6">
-        <v>43.2159633162236</v>
+        <v>258.584076</v>
       </c>
       <c r="O6">
-        <v>0.3090354395142529</v>
+        <v>0.454900350325626</v>
       </c>
       <c r="P6">
-        <v>0.3090354395142529</v>
+        <v>0.454900350325626</v>
       </c>
       <c r="Q6">
-        <v>663.1870255837638</v>
+        <v>276.6109775427</v>
       </c>
       <c r="R6">
-        <v>663.1870255837638</v>
+        <v>2489.4987978843</v>
       </c>
       <c r="S6">
-        <v>0.2476910922247847</v>
+        <v>0.02588787599174055</v>
       </c>
       <c r="T6">
-        <v>0.2476910922247847</v>
+        <v>0.02588787599174054</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.345880889685</v>
+        <v>3.209141666666667</v>
       </c>
       <c r="H7">
-        <v>15.345880889685</v>
+        <v>9.627425000000001</v>
       </c>
       <c r="I7">
-        <v>0.8014973707032105</v>
+        <v>0.05690889438359308</v>
       </c>
       <c r="J7">
-        <v>0.8014973707032105</v>
+        <v>0.05690889438359308</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.23624951678279</v>
+        <v>9.289272666666667</v>
       </c>
       <c r="N7">
-        <v>9.23624951678279</v>
+        <v>27.867818</v>
       </c>
       <c r="O7">
-        <v>0.06604801119429725</v>
+        <v>0.04902498393215361</v>
       </c>
       <c r="P7">
-        <v>0.06604801119429725</v>
+        <v>0.04902498393215361</v>
       </c>
       <c r="Q7">
-        <v>141.7383849519593</v>
+        <v>29.81059196762778</v>
       </c>
       <c r="R7">
-        <v>141.7383849519593</v>
+        <v>268.29532770865</v>
       </c>
       <c r="S7">
-        <v>0.05293730731240546</v>
+        <v>0.002789957632752278</v>
       </c>
       <c r="T7">
-        <v>0.05293730731240546</v>
+        <v>0.002789957632752277</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.345880889685</v>
+        <v>3.209141666666667</v>
       </c>
       <c r="H8">
-        <v>15.345880889685</v>
+        <v>9.627425000000001</v>
       </c>
       <c r="I8">
-        <v>0.8014973707032105</v>
+        <v>0.05690889438359308</v>
       </c>
       <c r="J8">
-        <v>0.8014973707032105</v>
+        <v>0.05690889438359308</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>81.7370505985502</v>
+        <v>88.33691399999999</v>
       </c>
       <c r="N8">
-        <v>81.7370505985502</v>
+        <v>265.010742</v>
       </c>
       <c r="O8">
-        <v>0.5844980284597526</v>
+        <v>0.4662061223594221</v>
       </c>
       <c r="P8">
-        <v>0.5844980284597526</v>
+        <v>0.4662061223594221</v>
       </c>
       <c r="Q8">
-        <v>1254.327042759507</v>
+        <v>283.48567142215</v>
       </c>
       <c r="R8">
-        <v>1254.327042759507</v>
+        <v>2551.37104279935</v>
       </c>
       <c r="S8">
-        <v>0.468473632991702</v>
+        <v>0.02653127497833683</v>
       </c>
       <c r="T8">
-        <v>0.468473632991702</v>
+        <v>0.02653127497833682</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.345880889685</v>
+        <v>3.209141666666667</v>
       </c>
       <c r="H9">
-        <v>15.345880889685</v>
+        <v>9.627425000000001</v>
       </c>
       <c r="I9">
-        <v>0.8014973707032105</v>
+        <v>0.05690889438359308</v>
       </c>
       <c r="J9">
-        <v>0.8014973707032105</v>
+        <v>0.05690889438359308</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.65218447536042</v>
+        <v>5.659503</v>
       </c>
       <c r="N9">
-        <v>5.65218447536042</v>
+        <v>16.978509</v>
       </c>
       <c r="O9">
-        <v>0.04041852083169717</v>
+        <v>0.02986854338279823</v>
       </c>
       <c r="P9">
-        <v>0.04041852083169717</v>
+        <v>0.02986854338279823</v>
       </c>
       <c r="Q9">
-        <v>86.73774972540771</v>
+        <v>18.162146889925</v>
       </c>
       <c r="R9">
-        <v>86.73774972540771</v>
+        <v>163.459322009325</v>
       </c>
       <c r="S9">
-        <v>0.03239533817431822</v>
+        <v>0.001699785780763433</v>
       </c>
       <c r="T9">
-        <v>0.03239533817431822</v>
+        <v>0.001699785780763432</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.913661288537497</v>
+        <v>15.98639866666667</v>
       </c>
       <c r="H10">
-        <v>0.913661288537497</v>
+        <v>47.95919600000001</v>
       </c>
       <c r="I10">
-        <v>0.04771945812301576</v>
+        <v>0.2834927116945642</v>
       </c>
       <c r="J10">
-        <v>0.04771945812301576</v>
+        <v>0.2834927116945642</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.2159633162236</v>
+        <v>86.19469199999999</v>
       </c>
       <c r="N10">
-        <v>43.2159633162236</v>
+        <v>258.584076</v>
       </c>
       <c r="O10">
-        <v>0.3090354395142529</v>
+        <v>0.454900350325626</v>
       </c>
       <c r="P10">
-        <v>0.3090354395142529</v>
+        <v>0.454900350325626</v>
       </c>
       <c r="Q10">
-        <v>39.48475272889006</v>
+        <v>1377.942709262544</v>
       </c>
       <c r="R10">
-        <v>39.48475272889006</v>
+        <v>12401.4843833629</v>
       </c>
       <c r="S10">
-        <v>0.01474700371442816</v>
+        <v>0.128960933864619</v>
       </c>
       <c r="T10">
-        <v>0.01474700371442816</v>
+        <v>0.128960933864619</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.913661288537497</v>
+        <v>15.98639866666667</v>
       </c>
       <c r="H11">
-        <v>0.913661288537497</v>
+        <v>47.95919600000001</v>
       </c>
       <c r="I11">
-        <v>0.04771945812301576</v>
+        <v>0.2834927116945642</v>
       </c>
       <c r="J11">
-        <v>0.04771945812301576</v>
+        <v>0.2834927116945642</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.23624951678279</v>
+        <v>9.289272666666667</v>
       </c>
       <c r="N11">
-        <v>9.23624951678279</v>
+        <v>27.867818</v>
       </c>
       <c r="O11">
-        <v>0.06604801119429725</v>
+        <v>0.04902498393215361</v>
       </c>
       <c r="P11">
-        <v>0.06604801119429725</v>
+        <v>0.04902498393215361</v>
       </c>
       <c r="Q11">
-        <v>8.438803634757598</v>
+        <v>148.5020161727031</v>
       </c>
       <c r="R11">
-        <v>8.438803634757598</v>
+        <v>1336.518145554328</v>
       </c>
       <c r="S11">
-        <v>0.003151775304294743</v>
+        <v>0.01389822563570867</v>
       </c>
       <c r="T11">
-        <v>0.003151775304294743</v>
+        <v>0.01389822563570866</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.913661288537497</v>
+        <v>15.98639866666667</v>
       </c>
       <c r="H12">
-        <v>0.913661288537497</v>
+        <v>47.95919600000001</v>
       </c>
       <c r="I12">
-        <v>0.04771945812301576</v>
+        <v>0.2834927116945642</v>
       </c>
       <c r="J12">
-        <v>0.04771945812301576</v>
+        <v>0.2834927116945642</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>81.7370505985502</v>
+        <v>88.33691399999999</v>
       </c>
       <c r="N12">
-        <v>81.7370505985502</v>
+        <v>265.010742</v>
       </c>
       <c r="O12">
-        <v>0.5844980284597526</v>
+        <v>0.4662061223594221</v>
       </c>
       <c r="P12">
-        <v>0.5844980284597526</v>
+        <v>0.4662061223594221</v>
       </c>
       <c r="Q12">
-        <v>74.67997897112596</v>
+        <v>1412.189124187048</v>
       </c>
       <c r="R12">
-        <v>74.67997897112596</v>
+        <v>12709.70211768343</v>
       </c>
       <c r="S12">
-        <v>0.02789192919207044</v>
+        <v>0.1321660378362804</v>
       </c>
       <c r="T12">
-        <v>0.02789192919207044</v>
+        <v>0.1321660378362804</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>15.98639866666667</v>
+      </c>
+      <c r="H13">
+        <v>47.95919600000001</v>
+      </c>
+      <c r="I13">
+        <v>0.2834927116945642</v>
+      </c>
+      <c r="J13">
+        <v>0.2834927116945642</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.659503</v>
+      </c>
+      <c r="N13">
+        <v>16.978509</v>
+      </c>
+      <c r="O13">
+        <v>0.02986854338279823</v>
+      </c>
+      <c r="P13">
+        <v>0.02986854338279823</v>
+      </c>
+      <c r="Q13">
+        <v>90.475071213196</v>
+      </c>
+      <c r="R13">
+        <v>814.275640918764</v>
+      </c>
+      <c r="S13">
+        <v>0.008467514357956202</v>
+      </c>
+      <c r="T13">
+        <v>0.008467514357956202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.927863</v>
+      </c>
+      <c r="H14">
+        <v>2.783589</v>
+      </c>
+      <c r="I14">
+        <v>0.01645413725978976</v>
+      </c>
+      <c r="J14">
+        <v>0.01645413725978976</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>86.19469199999999</v>
+      </c>
+      <c r="N14">
+        <v>258.584076</v>
+      </c>
+      <c r="O14">
+        <v>0.454900350325626</v>
+      </c>
+      <c r="P14">
+        <v>0.454900350325626</v>
+      </c>
+      <c r="Q14">
+        <v>79.976865503196</v>
+      </c>
+      <c r="R14">
+        <v>719.791789528764</v>
+      </c>
+      <c r="S14">
+        <v>0.0074849928037843</v>
+      </c>
+      <c r="T14">
+        <v>0.0074849928037843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.927863</v>
+      </c>
+      <c r="H15">
+        <v>2.783589</v>
+      </c>
+      <c r="I15">
+        <v>0.01645413725978976</v>
+      </c>
+      <c r="J15">
+        <v>0.01645413725978976</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.289272666666667</v>
+      </c>
+      <c r="N15">
+        <v>27.867818</v>
+      </c>
+      <c r="O15">
+        <v>0.04902498393215361</v>
+      </c>
+      <c r="P15">
+        <v>0.04902498393215361</v>
+      </c>
+      <c r="Q15">
+        <v>8.619172404311334</v>
+      </c>
+      <c r="R15">
+        <v>77.572551638802</v>
+      </c>
+      <c r="S15">
+        <v>0.0008066638147786432</v>
+      </c>
+      <c r="T15">
+        <v>0.0008066638147786431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.913661288537497</v>
-      </c>
-      <c r="H13">
-        <v>0.913661288537497</v>
-      </c>
-      <c r="I13">
-        <v>0.04771945812301576</v>
-      </c>
-      <c r="J13">
-        <v>0.04771945812301576</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.65218447536042</v>
-      </c>
-      <c r="N13">
-        <v>5.65218447536042</v>
-      </c>
-      <c r="O13">
-        <v>0.04041852083169717</v>
-      </c>
-      <c r="P13">
-        <v>0.04041852083169717</v>
-      </c>
-      <c r="Q13">
-        <v>5.164182150809437</v>
-      </c>
-      <c r="R13">
-        <v>5.164182150809437</v>
-      </c>
-      <c r="S13">
-        <v>0.001928749912222413</v>
-      </c>
-      <c r="T13">
-        <v>0.001928749912222413</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.927863</v>
+      </c>
+      <c r="H16">
+        <v>2.783589</v>
+      </c>
+      <c r="I16">
+        <v>0.01645413725978976</v>
+      </c>
+      <c r="J16">
+        <v>0.01645413725978976</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>88.33691399999999</v>
+      </c>
+      <c r="N16">
+        <v>265.010742</v>
+      </c>
+      <c r="O16">
+        <v>0.4662061223594221</v>
+      </c>
+      <c r="P16">
+        <v>0.4662061223594221</v>
+      </c>
+      <c r="Q16">
+        <v>81.964554034782</v>
+      </c>
+      <c r="R16">
+        <v>737.680986313038</v>
+      </c>
+      <c r="S16">
+        <v>0.007671019528656273</v>
+      </c>
+      <c r="T16">
+        <v>0.007671019528656273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.927863</v>
+      </c>
+      <c r="H17">
+        <v>2.783589</v>
+      </c>
+      <c r="I17">
+        <v>0.01645413725978976</v>
+      </c>
+      <c r="J17">
+        <v>0.01645413725978976</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.659503</v>
+      </c>
+      <c r="N17">
+        <v>16.978509</v>
+      </c>
+      <c r="O17">
+        <v>0.02986854338279823</v>
+      </c>
+      <c r="P17">
+        <v>0.02986854338279823</v>
+      </c>
+      <c r="Q17">
+        <v>5.251243432089</v>
+      </c>
+      <c r="R17">
+        <v>47.261190888801</v>
+      </c>
+      <c r="S17">
+        <v>0.0004914611125705474</v>
+      </c>
+      <c r="T17">
+        <v>0.0004914611125705473</v>
       </c>
     </row>
   </sheetData>
